--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -294,9 +295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,9 +305,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -317,6 +312,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -633,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -644,52 +645,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8">
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>45130</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="13.8" thickBot="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -697,17 +698,17 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1002</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>1223</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f>B6+C6</f>
         <v>2225</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f>D6/$D$13</f>
         <v>0.11216413772243787</v>
       </c>
@@ -716,17 +717,17 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>138</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>166</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f t="shared" ref="D7:D12" si="0">B7+C7</f>
         <v>304</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f t="shared" ref="E7:E12" si="1">D7/$D$13</f>
         <v>1.532489791803196E-2</v>
       </c>
@@ -735,17 +736,17 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>1494</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>1577</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="1"/>
         <v>0.15481171548117154</v>
       </c>
@@ -754,17 +755,17 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>3571</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>3746</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>7317</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
         <v>0.36885617784947322</v>
       </c>
@@ -774,17 +775,17 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>1468</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>1094</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>2562</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>0.12915259363815093</v>
       </c>
@@ -793,17 +794,17 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>1812</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>1927</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>3739</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f t="shared" si="1"/>
         <v>0.1884861622221102</v>
       </c>
@@ -812,38 +813,38 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>427</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>192</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>3.1204315168624288E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <f>SUM(B6:B12)</f>
         <v>9912</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f>SUM(C6:C12)</f>
         <v>9925</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f>SUM(D6:D12)</f>
         <v>19837</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <f>SUM(E6:E12)</f>
         <v>1</v>
       </c>
@@ -899,4 +900,418 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="3" spans="2:11">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>C$3*$B4</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:K4" si="0">D$3*$B4</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:K12" si="1">C$3*$B5</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>